--- a/PDC_Assignment1.xlsx
+++ b/PDC_Assignment1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hadiah\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hadia\OpenMP_Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F741BD2D-4911-4F32-99CB-1AF852DAF533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFCC65E-77A9-4411-833D-9F1C660F04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7766C438-E750-47BE-8A94-A38E353BDC78}"/>
   </bookViews>
@@ -36,31 +36,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Sequential Code Execution Time (seconds)</t>
   </si>
   <si>
     <t>Parallelized Code Execution Time (seconds)</t>
   </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Parallel (Static)</t>
+  </si>
+  <si>
+    <t>Parallel (Dynamic)</t>
+  </si>
+  <si>
+    <t>No. Of Threads</t>
+  </si>
+  <si>
+    <t>Parallelized Code Execution Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -76,6 +85,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,11 +121,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,6 +150,2909 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution Time Per One Execution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.7099999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.05E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8199999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5599999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A126-409F-A9F4-7A35A8789E72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel (Static)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7580000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8170000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8710000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7330000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2150000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.98E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5860000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5980000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2950000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A126-409F-A9F4-7A35A8789E72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel (Dynamic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.5639999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4359999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9240000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.13E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4350000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6880000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8609999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9969999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9039999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2560000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A126-409F-A9F4-7A35A8789E72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="536628192"/>
+        <c:axId val="536623872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="536628192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536623872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="536623872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536628192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison of Avergae Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Times</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Parallel (Static)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Parallel (Dynamic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.9389999999999993E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3582999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2195000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D29-4838-A13D-CED6E463D5D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="536637192"/>
+        <c:axId val="536638272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="536637192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536638272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="536638272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536637192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison of Execution Time across Different No. Of Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel (Static)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.036E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2744999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3369999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5040000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2592-4AF7-A80E-A47BBD81D9F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel (Dynamic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.44E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5775E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1844999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2592-4AF7-A80E-A47BBD81D9F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="529105152"/>
+        <c:axId val="538183616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="529105152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538183616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="538183616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529105152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6C58A3-C676-0447-D33A-C27BB86863E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA20E94-8540-EE95-1B79-74F12F99DA69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2847975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF66FC10-9A04-8D92-8AB5-95B4EB93CB25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,124 +3372,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04018086-815F-4719-98C9-A9F79773E568}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.7099999999999997E-4</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.2299999999999999E-4</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.7099999999999997E-4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.7580000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>3.5639999999999999E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2.14E-4</v>
-      </c>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.2299999999999999E-4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.8170000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>5.4359999999999999E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.8100000000000001E-4</v>
-      </c>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.14E-4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.8710000000000004E-3</v>
+      </c>
+      <c r="D5">
+        <v>3.9240000000000004E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2.05E-4</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.8100000000000001E-4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.7299999999999998E-3</v>
+      </c>
+      <c r="D6">
+        <v>4.13E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6.8199999999999999E-4</v>
-      </c>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.05E-4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.7330000000000002E-3</v>
+      </c>
+      <c r="D7">
+        <v>3.4350000000000001E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2.4399999999999999E-4</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6.8199999999999999E-4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8.2150000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>4.6880000000000003E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.4399999999999999E-4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.98E-3</v>
+      </c>
+      <c r="D9">
+        <v>3.8609999999999998E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3.0299999999999999E-4</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.5860000000000002E-3</v>
+      </c>
+      <c r="D10">
+        <v>4.9969999999999997E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.0299999999999999E-4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.5980000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>3.9039999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="2">
         <v>3.5599999999999998E-4</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C12" s="2">
+        <v>4.2950000000000002E-3</v>
+      </c>
+      <c r="D12">
+        <v>4.2560000000000002E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <f>AVERAGE(B2:B11)</f>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <f>AVERAGE(B3:B12)</f>
         <v>2.9389999999999993E-4</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C3:C12)</f>
+        <v>4.3582999999999998E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <f>AVERAGE(D3:D12)</f>
+        <v>4.2195000000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1.036E-3</v>
+      </c>
+      <c r="D34">
+        <v>5.44E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>6.2744999999999997E-3</v>
+      </c>
+      <c r="D35">
+        <v>7.7099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>4.3369999999999997E-3</v>
+      </c>
+      <c r="D36">
+        <v>3.5775E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>7.5040000000000003E-3</v>
+      </c>
+      <c r="D37">
+        <v>5.1844999999999999E-3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C32:D32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PDC_Assignment1.xlsx
+++ b/PDC_Assignment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hadia\OpenMP_Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFCC65E-77A9-4411-833D-9F1C660F04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE9E95-0F23-4831-8A16-2E8F4A6143B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7766C438-E750-47BE-8A94-A38E353BDC78}"/>
   </bookViews>
@@ -676,7 +676,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comparison of Avergae Execution</a:t>
+              <a:t>Comparison of Average Execution</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -711,7 +711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -982,8 +982,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comparison of Execution Time across Different No. Of Threads</a:t>
+              <a:t>Comparison of Execution Time across Different No. Of Threads for</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Dynamic and Static</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1012,7 +1017,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3374,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04018086-815F-4719-98C9-A9F79773E568}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PDC_Assignment1.xlsx
+++ b/PDC_Assignment1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hadia\OpenMP_Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE9E95-0F23-4831-8A16-2E8F4A6143B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4299652-02BD-4A67-9963-EBB17CF35E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7766C438-E750-47BE-8A94-A38E353BDC78}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7766C438-E750-47BE-8A94-A38E353BDC78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Sequential Code Execution Time (seconds)</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Parallel (Dynamic)</t>
-  </si>
-  <si>
-    <t>No. Of Threads</t>
-  </si>
-  <si>
-    <t>Parallelized Code Execution Time</t>
   </si>
 </sst>
 </file>
@@ -261,34 +255,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.7099999999999997E-4</c:v>
+                  <c:v>2.0874109999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2299999999999999E-4</c:v>
+                  <c:v>2.582166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.14E-4</c:v>
+                  <c:v>5.6043609999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8100000000000001E-4</c:v>
+                  <c:v>7.0913029999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.05E-4</c:v>
+                  <c:v>4.9783179999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8199999999999999E-4</c:v>
+                  <c:v>1.6207819999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4399999999999999E-4</c:v>
+                  <c:v>4.5114200000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6000000000000001E-4</c:v>
+                  <c:v>2.5220060000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0299999999999999E-4</c:v>
+                  <c:v>3.4029050000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5599999999999998E-4</c:v>
+                  <c:v>5.1445819999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -330,34 +324,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.7580000000000001E-3</c:v>
+                  <c:v>0.95196599999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8170000000000001E-3</c:v>
+                  <c:v>0.66829099999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8710000000000004E-3</c:v>
+                  <c:v>0.531752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7299999999999998E-3</c:v>
+                  <c:v>0.57339799999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7330000000000002E-3</c:v>
+                  <c:v>0.77741000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2150000000000001E-3</c:v>
+                  <c:v>0.63341599999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.98E-3</c:v>
+                  <c:v>0.65261199999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5860000000000002E-3</c:v>
+                  <c:v>0.56630800000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5980000000000001E-3</c:v>
+                  <c:v>0.64118399999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2950000000000002E-3</c:v>
+                  <c:v>0.71576399999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,34 +395,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.5639999999999999E-3</c:v>
+                  <c:v>8.9911549999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4359999999999999E-3</c:v>
+                  <c:v>10.204575999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9240000000000004E-3</c:v>
+                  <c:v>10.862017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.13E-3</c:v>
+                  <c:v>9.9232060000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4350000000000001E-3</c:v>
+                  <c:v>10.849819999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6880000000000003E-3</c:v>
+                  <c:v>10.052460999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8609999999999998E-3</c:v>
+                  <c:v>11.308913</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9969999999999997E-3</c:v>
+                  <c:v>11.257792999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9039999999999999E-3</c:v>
+                  <c:v>10.097391</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2560000000000002E-3</c:v>
+                  <c:v>11.084801000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,13 +753,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.9389999999999993E-4</c:v>
+                  <c:v>3.9545254000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3582999999999998E-3</c:v>
+                  <c:v>0.67121010000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2195000000000002E-3</c:v>
+                  <c:v>10.4632133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,430 +941,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Comparison of Execution Time across Different No. Of Threads for</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Dynamic and Static</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Parallel (Static)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:tint val="77000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$34:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$34:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.036E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2744999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3369999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5040000000000003E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2592-4AF7-A80E-A47BBD81D9F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Parallel (Dynamic)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:shade val="76000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$34:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$34:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.44E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7099999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5775E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1844999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2592-4AF7-A80E-A47BBD81D9F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="529105152"/>
-        <c:axId val="538183616"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="529105152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-PK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="538183616"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="538183616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-PK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="529105152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-PK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-PK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
@@ -1417,12 +987,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
-  <a:schemeClr val="accent3"/>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2399,522 +1963,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3016,42 +2064,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2847975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF66FC10-9A04-8D92-8AB5-95B4EB93CB25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3379,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04018086-815F-4719-98C9-A9F79773E568}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,13 +2427,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>2.7099999999999997E-4</v>
+        <v>2.0874109999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>3.7580000000000001E-3</v>
+        <v>0.95196599999999998</v>
       </c>
       <c r="D3">
-        <v>3.5639999999999999E-3</v>
+        <v>8.9911549999999991</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3429,13 +2441,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>3.2299999999999999E-4</v>
+        <v>2.582166</v>
       </c>
       <c r="C4" s="2">
-        <v>3.8170000000000001E-3</v>
+        <v>0.66829099999999997</v>
       </c>
       <c r="D4">
-        <v>5.4359999999999999E-3</v>
+        <v>10.204575999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3443,13 +2455,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>2.14E-4</v>
+        <v>5.6043609999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>5.8710000000000004E-3</v>
+        <v>0.531752</v>
       </c>
       <c r="D5">
-        <v>3.9240000000000004E-3</v>
+        <v>10.862017</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3457,13 +2469,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.8100000000000001E-4</v>
+        <v>7.0913029999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>3.7299999999999998E-3</v>
+        <v>0.57339799999999996</v>
       </c>
       <c r="D6">
-        <v>4.13E-3</v>
+        <v>9.9232060000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3471,13 +2483,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>2.05E-4</v>
+        <v>4.9783179999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>2.7330000000000002E-3</v>
+        <v>0.77741000000000005</v>
       </c>
       <c r="D7">
-        <v>3.4350000000000001E-3</v>
+        <v>10.849819999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3485,13 +2497,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>6.8199999999999999E-4</v>
+        <v>1.6207819999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>8.2150000000000001E-3</v>
+        <v>0.63341599999999998</v>
       </c>
       <c r="D8">
-        <v>4.6880000000000003E-3</v>
+        <v>10.052460999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3499,13 +2511,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.4399999999999999E-4</v>
+        <v>4.5114200000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>3.98E-3</v>
+        <v>0.65261199999999997</v>
       </c>
       <c r="D9">
-        <v>3.8609999999999998E-3</v>
+        <v>11.308913</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3513,13 +2525,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.6000000000000001E-4</v>
+        <v>2.5220060000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>3.5860000000000002E-3</v>
+        <v>0.56630800000000003</v>
       </c>
       <c r="D10">
-        <v>4.9969999999999997E-3</v>
+        <v>11.257792999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3527,13 +2539,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>3.0299999999999999E-4</v>
+        <v>3.4029050000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>3.5980000000000001E-3</v>
+        <v>0.64118399999999998</v>
       </c>
       <c r="D11">
-        <v>3.9039999999999999E-3</v>
+        <v>10.097391</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3541,90 +2553,50 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>3.5599999999999998E-4</v>
+        <v>5.1445819999999998</v>
       </c>
       <c r="C12" s="2">
-        <v>4.2950000000000002E-3</v>
+        <v>0.71576399999999996</v>
       </c>
       <c r="D12">
-        <v>4.2560000000000002E-3</v>
+        <v>11.084801000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <f>AVERAGE(B3:B12)</f>
-        <v>2.9389999999999993E-4</v>
+        <v>3.9545254000000001</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C3:C12)</f>
-        <v>4.3582999999999998E-3</v>
+        <v>0.67121010000000003</v>
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D3:D12)</f>
-        <v>4.2195000000000002E-3</v>
+        <v>10.4632133</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>1.036E-3</v>
-      </c>
-      <c r="D34">
-        <v>5.44E-4</v>
-      </c>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>6.2744999999999997E-3</v>
-      </c>
-      <c r="D35">
-        <v>7.7099999999999998E-3</v>
-      </c>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>4.3369999999999997E-3</v>
-      </c>
-      <c r="D36">
-        <v>3.5775E-3</v>
-      </c>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>7.5040000000000003E-3</v>
-      </c>
-      <c r="D37">
-        <v>5.1844999999999999E-3</v>
-      </c>
+      <c r="B37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
